--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="166">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,298 +46,304 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>fell</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>less</t>
+    <t>fl</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>think</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>way</t>
+    <t>made</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>came</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>still</t>
+    <t>set</t>
   </si>
   <si>
     <t>got</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>bought</t>
+    <t>old</t>
   </si>
   <si>
     <t>negative</t>
@@ -346,10 +352,13 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
@@ -358,79 +367,91 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>best</t>
+    <t>elf</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>expansion</t>
+    <t>every</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>elf</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>ages</t>
   </si>
   <si>
     <t>birthday</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>everyone</t>
   </si>
   <si>
     <t>family</t>
@@ -439,43 +460,43 @@
     <t>game</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>book</t>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>grandson</t>
+  </si>
+  <si>
+    <t>play</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>grand</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>year</t>
@@ -484,19 +505,10 @@
     <t>good</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>gift</t>
-  </si>
-  <si>
-    <t>old</t>
   </si>
   <si>
     <t>positive</t>
@@ -857,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q102"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,10 +877,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -926,13 +938,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -944,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -976,13 +988,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9318181818181818</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -994,31 +1006,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K4">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1026,13 +1038,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1044,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1068,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1076,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1094,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K6">
-        <v>0.8172043010752689</v>
+        <v>0.85</v>
       </c>
       <c r="L6">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1118,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1126,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7272727272727273</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1144,31 +1156,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="L7">
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <v>78</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>15</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7">
-        <v>0.796875</v>
-      </c>
-      <c r="L7">
-        <v>51</v>
-      </c>
-      <c r="M7">
-        <v>51</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1176,13 +1188,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.703125</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1194,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K8">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1218,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1226,13 +1238,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6990291262135923</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1244,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1276,13 +1288,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6650485436893204</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1294,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10">
-        <v>0.6384505021520803</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>445</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1318,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>252</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1326,13 +1338,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.668918918918919</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C11">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1344,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K11">
-        <v>0.5942028985507246</v>
+        <v>0.6163793103448276</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="M11">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1365,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1376,13 +1388,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6386554621848739</v>
+        <v>0.625</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1394,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K12">
-        <v>0.5912863070539419</v>
+        <v>0.5975103734439834</v>
       </c>
       <c r="L12">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M12">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1426,13 +1438,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1444,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K13">
-        <v>0.5258408531583265</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L13">
-        <v>641</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>642</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1465,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>578</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1497,16 +1509,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K14">
-        <v>0.4770642201834863</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L14">
-        <v>156</v>
+        <v>660</v>
       </c>
       <c r="M14">
-        <v>156</v>
+        <v>660</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1518,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>171</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1526,13 +1538,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5783132530120482</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1544,31 +1556,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K15">
-        <v>0.4716981132075472</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L15">
+        <v>28</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>25</v>
-      </c>
-      <c r="M15">
-        <v>25</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1576,13 +1588,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1594,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.4285714285714285</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L16">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1618,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1626,37 +1638,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5697674418604651</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C17">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K17">
-        <v>0.4216867469879518</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1668,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1676,13 +1688,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1694,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K18">
-        <v>0.375</v>
+        <v>0.4464831804281346</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1718,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>80</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1726,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5555555555555556</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1744,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19">
-        <v>0.375</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1768,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1776,13 +1788,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1794,31 +1806,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20">
-        <v>0.3220338983050847</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1826,13 +1838,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1844,31 +1856,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21">
-        <v>0.3191489361702128</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1876,13 +1888,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4928909952606635</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C22">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1894,31 +1906,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22">
-        <v>0.2972972972972973</v>
+        <v>0.34375</v>
       </c>
       <c r="L22">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1926,13 +1938,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4842105263157895</v>
+        <v>0.4786729857819905</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1944,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K23">
-        <v>0.2867132867132867</v>
+        <v>0.328125</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1968,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>102</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1976,13 +1988,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4803149606299212</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1994,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K24">
-        <v>0.2857142857142857</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2018,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2026,13 +2038,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.462962962962963</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2044,31 +2056,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K25">
-        <v>0.2764227642276423</v>
+        <v>0.312</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2076,13 +2088,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4603174603174603</v>
+        <v>0.4609375</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2094,31 +2106,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26">
-        <v>0.265625</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2126,13 +2138,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4473684210526316</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2144,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K27">
-        <v>0.264957264957265</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2168,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2176,13 +2188,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4269662921348314</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2194,31 +2206,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K28">
-        <v>0.2631578947368421</v>
+        <v>0.2936507936507937</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2226,49 +2238,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.421875</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>38</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>51</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>0.96</v>
+      </c>
+      <c r="O29">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29">
         <v>54</v>
-      </c>
-      <c r="D29">
-        <v>54</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>74</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29">
-        <v>0.2504393673110721</v>
-      </c>
-      <c r="L29">
-        <v>285</v>
-      </c>
-      <c r="M29">
-        <v>288</v>
-      </c>
-      <c r="N29">
-        <v>0.99</v>
-      </c>
-      <c r="O29">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>853</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2276,13 +2288,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4181818181818182</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2294,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K30">
-        <v>0.2459016393442623</v>
+        <v>0.2797202797202797</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2318,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2326,13 +2338,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4126984126984127</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2344,31 +2356,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K31">
-        <v>0.2449799196787149</v>
+        <v>0.2506596306068601</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>188</v>
+        <v>852</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2376,13 +2388,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3910891089108911</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2394,31 +2406,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K32">
-        <v>0.2441860465116279</v>
+        <v>0.2369477911646586</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N32">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2426,13 +2438,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.375</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2444,19 +2456,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K33">
-        <v>0.16991643454039</v>
+        <v>0.2183908045977012</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2468,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>298</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2476,13 +2488,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3720930232558139</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2494,31 +2506,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K34">
-        <v>0.1447196870925684</v>
+        <v>0.2012987012987013</v>
       </c>
       <c r="L34">
-        <v>222</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1312</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2526,13 +2538,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3673469387755102</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2544,31 +2556,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K35">
-        <v>0.1340482573726542</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L35">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>323</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2576,13 +2588,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.35</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2594,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K36">
-        <v>0.1233766233766234</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2618,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2626,13 +2638,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3333333333333333</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2644,31 +2656,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K37">
-        <v>0.1233333333333333</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2676,13 +2688,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3188405797101449</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2694,31 +2706,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K38">
-        <v>0.1132075471698113</v>
+        <v>0.1532033426183844</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N38">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>141</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2726,49 +2738,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3064516129032258</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K39">
-        <v>0.109375</v>
+        <v>0.143786597267404</v>
       </c>
       <c r="L39">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="N39">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>228</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2776,49 +2788,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3041237113402062</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K40">
-        <v>0.1066666666666667</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2826,13 +2838,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2905982905982906</v>
+        <v>0.3144329896907216</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2844,31 +2856,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K41">
-        <v>0.1041666666666667</v>
+        <v>0.1263440860215054</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>258</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2876,13 +2888,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2857142857142857</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2894,31 +2906,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K42">
-        <v>0.1021671826625387</v>
+        <v>0.119205298013245</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>290</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2926,13 +2938,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2835820895522388</v>
+        <v>0.3125</v>
       </c>
       <c r="C43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2944,31 +2956,31 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K43">
-        <v>0.08993288590604027</v>
+        <v>0.11</v>
       </c>
       <c r="L43">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O43">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>678</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2976,13 +2988,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2758620689655172</v>
+        <v>0.3125</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2994,31 +3006,31 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K44">
-        <v>0.08500000000000001</v>
+        <v>0.10546875</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N44">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>183</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3026,13 +3038,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2755102040816326</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3044,31 +3056,31 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K45">
-        <v>0.0847457627118644</v>
+        <v>0.1006944444444444</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>216</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3076,13 +3088,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2678571428571428</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3094,19 +3106,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K46">
-        <v>0.07741935483870968</v>
+        <v>0.1003134796238244</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M46">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>0.86</v>
@@ -3118,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3126,13 +3138,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2626582278481013</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="C47">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3144,31 +3156,31 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K47">
-        <v>0.07455012853470437</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N47">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O47">
-        <v>0.1899999999999999</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>360</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3176,13 +3188,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2608695652173913</v>
+        <v>0.2928571428571429</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3194,31 +3206,31 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K48">
-        <v>0.07099391480730223</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N48">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="O48">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>458</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3226,49 +3238,49 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.26</v>
+        <v>0.2824207492795389</v>
       </c>
       <c r="C49">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="D49">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K49">
-        <v>0.06502890173410404</v>
+        <v>0.07537012113055182</v>
       </c>
       <c r="L49">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="M49">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N49">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="O49">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>647</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3276,13 +3288,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2567567567567567</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D50">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3294,31 +3306,31 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K50">
-        <v>0.06137184115523465</v>
+        <v>0.06711409395973154</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M50">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N50">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="O50">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3326,13 +3338,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2474226804123711</v>
+        <v>0.27</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3344,31 +3356,31 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K51">
-        <v>0.05660377358490566</v>
+        <v>0.06607142857142857</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N51">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="O51">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>400</v>
+        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3376,13 +3388,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2474226804123711</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C52">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3394,31 +3406,31 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K52">
-        <v>0.04496402877697842</v>
+        <v>0.06498194945848375</v>
       </c>
       <c r="L52">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="O52">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>531</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3426,49 +3438,49 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2468354430379747</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C53">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K53">
-        <v>0.04322766570605188</v>
+        <v>0.06109979633401222</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N53">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="O53">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>332</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3476,49 +3488,49 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2465753424657534</v>
+        <v>0.25</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E54">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>0.02751031636863824</v>
+        <v>0.06052631578947369</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M54">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="N54">
-        <v>0.23</v>
+        <v>0.59</v>
       </c>
       <c r="O54">
-        <v>0.77</v>
+        <v>0.41</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>707</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3526,13 +3538,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2457627118644068</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3544,31 +3556,31 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K55">
-        <v>0.02212389380530973</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N55">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
       <c r="O55">
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3576,13 +3588,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2403560830860534</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C56">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3594,7 +3606,31 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>512</v>
+        <v>238</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56">
+        <v>0.05164319248826291</v>
+      </c>
+      <c r="L56">
+        <v>22</v>
+      </c>
+      <c r="M56">
+        <v>29</v>
+      </c>
+      <c r="N56">
+        <v>0.76</v>
+      </c>
+      <c r="O56">
+        <v>0.24</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3602,25 +3638,49 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2356687898089172</v>
+        <v>0.2421991084695394</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>120</v>
+        <v>510</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K57">
+        <v>0.04610951008645533</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>20</v>
+      </c>
+      <c r="N57">
+        <v>0.8</v>
+      </c>
+      <c r="O57">
+        <v>0.2</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3628,25 +3688,49 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2334293948126801</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C58">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="D58">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>266</v>
+        <v>74</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K58">
+        <v>0.03962703962703962</v>
+      </c>
+      <c r="L58">
+        <v>17</v>
+      </c>
+      <c r="M58">
+        <v>35</v>
+      </c>
+      <c r="N58">
+        <v>0.49</v>
+      </c>
+      <c r="O58">
+        <v>0.51</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3654,25 +3738,49 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2318840579710145</v>
+        <v>0.2345132743362832</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>53</v>
+        <v>346</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K59">
+        <v>0.0375</v>
+      </c>
+      <c r="L59">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <v>49</v>
+      </c>
+      <c r="N59">
+        <v>0.31</v>
+      </c>
+      <c r="O59">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3680,13 +3788,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2285714285714286</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C60">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3698,7 +3806,31 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60">
+        <v>0.02735978112175103</v>
+      </c>
+      <c r="L60">
+        <v>20</v>
+      </c>
+      <c r="M60">
+        <v>83</v>
+      </c>
+      <c r="N60">
+        <v>0.24</v>
+      </c>
+      <c r="O60">
+        <v>0.76</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>711</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3706,25 +3838,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2210526315789474</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C61">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E61">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3732,25 +3864,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.2197802197802198</v>
+        <v>0.2297297297297297</v>
       </c>
       <c r="C62">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D62">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3758,13 +3890,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.2171428571428571</v>
+        <v>0.2102803738317757</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D63">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3776,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>137</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3784,25 +3916,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.2162162162162162</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3810,25 +3942,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.2142857142857143</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D65">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3836,25 +3968,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.2119205298013245</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="C66">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>357</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3862,25 +3994,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.205607476635514</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="C67">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D67">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3888,13 +4020,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2051282051282051</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3906,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3914,13 +4046,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.2</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D69">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3932,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3940,13 +4072,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1967213114754098</v>
+        <v>0.1832460732984293</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3958,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3966,25 +4098,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1869158878504673</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>174</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3992,25 +4124,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.169811320754717</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D72">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E72">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>220</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4018,25 +4150,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1684210526315789</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C73">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E73">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4044,25 +4176,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1683168316831683</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E74">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F74">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4070,25 +4202,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1497175141242938</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="C75">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D75">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E75">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4096,25 +4228,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1475409836065574</v>
+        <v>0.1563786008230453</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E76">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F76">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4122,25 +4254,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1413043478260869</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D77">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E77">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="F77">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4148,25 +4280,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1401098901098901</v>
+        <v>0.15</v>
       </c>
       <c r="C78">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D78">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F78">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>313</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4174,25 +4306,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1337579617834395</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="C79">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4200,25 +4332,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1307692307692308</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>113</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4226,25 +4358,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.130718954248366</v>
+        <v>0.133587786259542</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D81">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F81">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>133</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4252,25 +4384,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.124223602484472</v>
+        <v>0.1289398280802292</v>
       </c>
       <c r="C82">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D82">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
-        <v>141</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4278,25 +4410,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1225165562913907</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C83">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="E83">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F83">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>530</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4304,25 +4436,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.1209677419354839</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="C84">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>109</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4330,25 +4462,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1073825503355705</v>
+        <v>0.125748502994012</v>
       </c>
       <c r="C85">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D85">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F85">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>399</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4356,25 +4488,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.1055555555555556</v>
+        <v>0.1243523316062176</v>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D86">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E86">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="F86">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4382,25 +4514,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1040462427745665</v>
+        <v>0.1231884057971015</v>
       </c>
       <c r="C87">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F87">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>155</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4408,25 +4540,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1030927835051546</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C88">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D88">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E88">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F88">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4434,25 +4566,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09818181818181818</v>
+        <v>0.11</v>
       </c>
       <c r="C89">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D89">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E89">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F89">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>248</v>
+        <v>534</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4460,25 +4592,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09580838323353294</v>
+        <v>0.1065759637188209</v>
       </c>
       <c r="C90">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D90">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E90">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F90">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>151</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4486,25 +4618,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09316770186335403</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="C91">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E91">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>584</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4512,25 +4644,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.09302325581395349</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D92">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E92">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F92">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>156</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4538,25 +4670,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0924170616113744</v>
+        <v>0.09567901234567901</v>
       </c>
       <c r="C93">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D93">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E93">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F93">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>383</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4564,25 +4696,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.09177215189873418</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="C94">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D94">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E94">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="F94">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>287</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4590,25 +4722,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08962264150943396</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="C95">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D95">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E95">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="F95">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>386</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4616,25 +4748,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.0872093023255814</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C96">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E96">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="F96">
-        <v>0.9399999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>157</v>
+        <v>711</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4642,25 +4774,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.08656330749354005</v>
+        <v>0.081145584725537</v>
       </c>
       <c r="C97">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D97">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="E97">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="F97">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>707</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4668,25 +4800,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.07009345794392523</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C98">
         <v>15</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E98">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="F98">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4694,25 +4826,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.06896551724137931</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="C99">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E99">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F99">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4720,25 +4852,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.06235565819861432</v>
+        <v>0.04609218436873747</v>
       </c>
       <c r="C100">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D100">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E100">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="F100">
-        <v>0.6599999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>406</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4746,25 +4878,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.05627705627705628</v>
+        <v>0.04289544235924933</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E101">
-        <v>0.21</v>
+        <v>0.59</v>
       </c>
       <c r="F101">
-        <v>0.79</v>
+        <v>0.41</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>436</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4772,25 +4904,77 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.052</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="C102">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D102">
+        <v>35</v>
+      </c>
+      <c r="E102">
+        <v>0.49</v>
+      </c>
+      <c r="F102">
+        <v>0.51</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.04148471615720524</v>
+      </c>
+      <c r="C103">
+        <v>19</v>
+      </c>
+      <c r="D103">
         <v>30</v>
       </c>
-      <c r="E102">
-        <v>0.13</v>
-      </c>
-      <c r="F102">
-        <v>0.87</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>474</v>
+      <c r="E103">
+        <v>0.37</v>
+      </c>
+      <c r="F103">
+        <v>0.63</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="C104">
+        <v>21</v>
+      </c>
+      <c r="D104">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>0.38</v>
+      </c>
+      <c r="F104">
+        <v>0.62</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
